--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.86784435618072</v>
+        <v>8.785125666666667</v>
       </c>
       <c r="H2">
-        <v>7.86784435618072</v>
+        <v>26.355377</v>
       </c>
       <c r="I2">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243006</v>
       </c>
       <c r="J2">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.858547682613206</v>
+        <v>1.281462666666666</v>
       </c>
       <c r="N2">
-        <v>0.858547682613206</v>
+        <v>3.844387999999999</v>
       </c>
       <c r="O2">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713488</v>
       </c>
       <c r="P2">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713489</v>
       </c>
       <c r="Q2">
-        <v>6.754919539160349</v>
+        <v>11.25781056380844</v>
       </c>
       <c r="R2">
-        <v>6.754919539160349</v>
+        <v>101.320295074276</v>
       </c>
       <c r="S2">
-        <v>0.00983378918224114</v>
+        <v>0.01266905213105627</v>
       </c>
       <c r="T2">
-        <v>0.00983378918224114</v>
+        <v>0.01266905213105627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.86784435618072</v>
+        <v>8.785125666666667</v>
       </c>
       <c r="H3">
-        <v>7.86784435618072</v>
+        <v>26.355377</v>
       </c>
       <c r="I3">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243006</v>
       </c>
       <c r="J3">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.19455055447194</v>
+        <v>5.553376333333333</v>
       </c>
       <c r="N3">
-        <v>5.19455055447194</v>
+        <v>16.660129</v>
       </c>
       <c r="O3">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="P3">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="Q3">
-        <v>40.86991526289749</v>
+        <v>48.78710896262589</v>
       </c>
       <c r="R3">
-        <v>40.86991526289749</v>
+        <v>439.083980663633</v>
       </c>
       <c r="S3">
-        <v>0.05949828539946622</v>
+        <v>0.05490289814949024</v>
       </c>
       <c r="T3">
-        <v>0.05949828539946622</v>
+        <v>0.05490289814949023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.86784435618072</v>
+        <v>8.785125666666667</v>
       </c>
       <c r="H4">
-        <v>7.86784435618072</v>
+        <v>26.355377</v>
       </c>
       <c r="I4">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243006</v>
       </c>
       <c r="J4">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243005</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.39708476972371</v>
+        <v>5.652582666666667</v>
       </c>
       <c r="N4">
-        <v>3.39708476972371</v>
+        <v>16.957748</v>
       </c>
       <c r="O4">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="P4">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="Q4">
-        <v>26.72773423293818</v>
+        <v>49.65864906788845</v>
       </c>
       <c r="R4">
-        <v>26.72773423293818</v>
+        <v>446.9278416109961</v>
       </c>
       <c r="S4">
-        <v>0.03891014574517856</v>
+        <v>0.0558836916141959</v>
       </c>
       <c r="T4">
-        <v>0.03891014574517856</v>
+        <v>0.05588369161419589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.86784435618072</v>
+        <v>8.785125666666667</v>
       </c>
       <c r="H5">
-        <v>7.86784435618072</v>
+        <v>26.355377</v>
       </c>
       <c r="I5">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243006</v>
       </c>
       <c r="J5">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.10758018705225</v>
+        <v>3.252216</v>
       </c>
       <c r="N5">
-        <v>3.10758018705225</v>
+        <v>9.756648</v>
       </c>
       <c r="O5">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="P5">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="Q5">
-        <v>24.44995723607807</v>
+        <v>28.57112625514401</v>
       </c>
       <c r="R5">
-        <v>24.44995723607807</v>
+        <v>257.140136296296</v>
       </c>
       <c r="S5">
-        <v>0.03559416564187376</v>
+        <v>0.03215270730643368</v>
       </c>
       <c r="T5">
-        <v>0.03559416564187376</v>
+        <v>0.03215270730643367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.86784435618072</v>
+        <v>8.785125666666667</v>
       </c>
       <c r="H6">
-        <v>7.86784435618072</v>
+        <v>26.355377</v>
       </c>
       <c r="I6">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243006</v>
       </c>
       <c r="J6">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243005</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.83685466660925</v>
+        <v>3.032031</v>
       </c>
       <c r="N6">
-        <v>2.83685466660925</v>
+        <v>9.096093</v>
       </c>
       <c r="O6">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="P6">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="Q6">
-        <v>22.31993097798652</v>
+        <v>26.636773360229</v>
       </c>
       <c r="R6">
-        <v>22.31993097798652</v>
+        <v>239.730960242061</v>
       </c>
       <c r="S6">
-        <v>0.03249328056792454</v>
+        <v>0.02997587038715553</v>
       </c>
       <c r="T6">
-        <v>0.03249328056792454</v>
+        <v>0.02997587038715553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.86784435618072</v>
+        <v>8.785125666666667</v>
       </c>
       <c r="H7">
-        <v>7.86784435618072</v>
+        <v>26.355377</v>
       </c>
       <c r="I7">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243006</v>
       </c>
       <c r="J7">
-        <v>0.2011535192312006</v>
+        <v>0.2076758938243005</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.16726846685882</v>
+        <v>2.234552</v>
       </c>
       <c r="N7">
-        <v>2.16726846685882</v>
+        <v>6.703656</v>
       </c>
       <c r="O7">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="P7">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="Q7">
-        <v>17.05173097530361</v>
+        <v>19.63082012870133</v>
       </c>
       <c r="R7">
-        <v>17.05173097530361</v>
+        <v>176.677381158312</v>
       </c>
       <c r="S7">
-        <v>0.02482385269451635</v>
+        <v>0.02209167423596895</v>
       </c>
       <c r="T7">
-        <v>0.02482385269451635</v>
+        <v>0.02209167423596895</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.18427532489853</v>
+        <v>2.330354333333334</v>
       </c>
       <c r="H8">
-        <v>2.18427532489853</v>
+        <v>6.991063</v>
       </c>
       <c r="I8">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="J8">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.858547682613206</v>
+        <v>1.281462666666666</v>
       </c>
       <c r="N8">
-        <v>0.858547682613206</v>
+        <v>3.844387999999999</v>
       </c>
       <c r="O8">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713488</v>
       </c>
       <c r="P8">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713489</v>
       </c>
       <c r="Q8">
-        <v>1.87530451838084</v>
+        <v>2.986262078271555</v>
       </c>
       <c r="R8">
-        <v>1.87530451838084</v>
+        <v>26.876358704444</v>
       </c>
       <c r="S8">
-        <v>0.002730062020628263</v>
+        <v>0.003360609927852623</v>
       </c>
       <c r="T8">
-        <v>0.002730062020628263</v>
+        <v>0.003360609927852623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.18427532489853</v>
+        <v>2.330354333333334</v>
       </c>
       <c r="H9">
-        <v>2.18427532489853</v>
+        <v>6.991063</v>
       </c>
       <c r="I9">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="J9">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.19455055447194</v>
+        <v>5.553376333333333</v>
       </c>
       <c r="N9">
-        <v>5.19455055447194</v>
+        <v>16.660129</v>
       </c>
       <c r="O9">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="P9">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="Q9">
-        <v>11.34632860007103</v>
+        <v>12.94133460301411</v>
       </c>
       <c r="R9">
-        <v>11.34632860007103</v>
+        <v>116.472011427127</v>
       </c>
       <c r="S9">
-        <v>0.01651794707526614</v>
+        <v>0.0145636171262384</v>
       </c>
       <c r="T9">
-        <v>0.01651794707526614</v>
+        <v>0.0145636171262384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.18427532489853</v>
+        <v>2.330354333333334</v>
       </c>
       <c r="H10">
-        <v>2.18427532489853</v>
+        <v>6.991063</v>
       </c>
       <c r="I10">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="J10">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.39708476972371</v>
+        <v>5.652582666666667</v>
       </c>
       <c r="N10">
-        <v>3.39708476972371</v>
+        <v>16.957748</v>
       </c>
       <c r="O10">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="P10">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="Q10">
-        <v>7.420168439096105</v>
+        <v>13.17252051179156</v>
       </c>
       <c r="R10">
-        <v>7.420168439096105</v>
+        <v>118.552684606124</v>
       </c>
       <c r="S10">
-        <v>0.01080225629687671</v>
+        <v>0.01482378372911969</v>
       </c>
       <c r="T10">
-        <v>0.01080225629687671</v>
+        <v>0.01482378372911969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.18427532489853</v>
+        <v>2.330354333333334</v>
       </c>
       <c r="H11">
-        <v>2.18427532489853</v>
+        <v>6.991063</v>
       </c>
       <c r="I11">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="J11">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.10758018705225</v>
+        <v>3.252216</v>
       </c>
       <c r="N11">
-        <v>3.10758018705225</v>
+        <v>9.756648</v>
       </c>
       <c r="O11">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="P11">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="Q11">
-        <v>6.787810722721788</v>
+        <v>7.578815648536001</v>
       </c>
       <c r="R11">
-        <v>6.787810722721788</v>
+        <v>68.20934083682401</v>
       </c>
       <c r="S11">
-        <v>0.009881672056822024</v>
+        <v>0.008528870689265351</v>
       </c>
       <c r="T11">
-        <v>0.009881672056822024</v>
+        <v>0.008528870689265349</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.18427532489853</v>
+        <v>2.330354333333334</v>
       </c>
       <c r="H12">
-        <v>2.18427532489853</v>
+        <v>6.991063</v>
       </c>
       <c r="I12">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="J12">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.83685466660925</v>
+        <v>3.032031</v>
       </c>
       <c r="N12">
-        <v>2.83685466660925</v>
+        <v>9.096093</v>
       </c>
       <c r="O12">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="P12">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="Q12">
-        <v>6.19647164859783</v>
+        <v>7.065706579651001</v>
       </c>
       <c r="R12">
-        <v>6.19647164859783</v>
+        <v>63.591359216859</v>
       </c>
       <c r="S12">
-        <v>0.00902080261841573</v>
+        <v>0.00795143997964585</v>
       </c>
       <c r="T12">
-        <v>0.00902080261841573</v>
+        <v>0.00795143997964585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.18427532489853</v>
+        <v>2.330354333333334</v>
       </c>
       <c r="H13">
-        <v>2.18427532489853</v>
+        <v>6.991063</v>
       </c>
       <c r="I13">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="J13">
-        <v>0.05584435185579834</v>
+        <v>0.05508838888197259</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.16726846685882</v>
+        <v>2.234552</v>
       </c>
       <c r="N13">
-        <v>2.16726846685882</v>
+        <v>6.703656</v>
       </c>
       <c r="O13">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="P13">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="Q13">
-        <v>4.733911034590387</v>
+        <v>5.207297936258667</v>
       </c>
       <c r="R13">
-        <v>4.733911034590387</v>
+        <v>46.865681426328</v>
       </c>
       <c r="S13">
-        <v>0.006891611787789476</v>
+        <v>0.005860067429850682</v>
       </c>
       <c r="T13">
-        <v>0.006891611787789476</v>
+        <v>0.005860067429850682</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.78894679345051</v>
+        <v>4.848472666666667</v>
       </c>
       <c r="H14">
-        <v>3.78894679345051</v>
+        <v>14.545418</v>
       </c>
       <c r="I14">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="J14">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.858547682613206</v>
+        <v>1.281462666666666</v>
       </c>
       <c r="N14">
-        <v>0.858547682613206</v>
+        <v>3.844387999999999</v>
       </c>
       <c r="O14">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713488</v>
       </c>
       <c r="P14">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713489</v>
       </c>
       <c r="Q14">
-        <v>3.252991489061673</v>
+        <v>6.21313671268711</v>
       </c>
       <c r="R14">
-        <v>3.252991489061673</v>
+        <v>55.91823041418399</v>
       </c>
       <c r="S14">
-        <v>0.004735694086303434</v>
+        <v>0.006991994799012144</v>
       </c>
       <c r="T14">
-        <v>0.004735694086303434</v>
+        <v>0.006991994799012145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.78894679345051</v>
+        <v>4.848472666666667</v>
       </c>
       <c r="H15">
-        <v>3.78894679345051</v>
+        <v>14.545418</v>
       </c>
       <c r="I15">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="J15">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.19455055447194</v>
+        <v>5.553376333333333</v>
       </c>
       <c r="N15">
-        <v>5.19455055447194</v>
+        <v>16.660129</v>
       </c>
       <c r="O15">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="P15">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="Q15">
-        <v>19.68187566678303</v>
+        <v>26.92539335988022</v>
       </c>
       <c r="R15">
-        <v>19.68187566678303</v>
+        <v>242.328540238922</v>
       </c>
       <c r="S15">
-        <v>0.02865280850440513</v>
+        <v>0.03030067082689662</v>
       </c>
       <c r="T15">
-        <v>0.02865280850440513</v>
+        <v>0.03030067082689662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.78894679345051</v>
+        <v>4.848472666666667</v>
       </c>
       <c r="H16">
-        <v>3.78894679345051</v>
+        <v>14.545418</v>
       </c>
       <c r="I16">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="J16">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.39708476972371</v>
+        <v>5.652582666666667</v>
       </c>
       <c r="N16">
-        <v>3.39708476972371</v>
+        <v>16.957748</v>
       </c>
       <c r="O16">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="P16">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="Q16">
-        <v>12.87137344532422</v>
+        <v>27.40639255540712</v>
       </c>
       <c r="R16">
-        <v>12.87137344532422</v>
+        <v>246.6575329986641</v>
       </c>
       <c r="S16">
-        <v>0.01873810223991929</v>
+        <v>0.03084196647657797</v>
       </c>
       <c r="T16">
-        <v>0.01873810223991929</v>
+        <v>0.03084196647657797</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.78894679345051</v>
+        <v>4.848472666666667</v>
       </c>
       <c r="H17">
-        <v>3.78894679345051</v>
+        <v>14.545418</v>
       </c>
       <c r="I17">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="J17">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.10758018705225</v>
+        <v>3.252216</v>
       </c>
       <c r="N17">
-        <v>3.10758018705225</v>
+        <v>9.756648</v>
       </c>
       <c r="O17">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="P17">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="Q17">
-        <v>11.77445598512196</v>
+        <v>15.768280382096</v>
       </c>
       <c r="R17">
-        <v>11.77445598512196</v>
+        <v>141.914523438864</v>
       </c>
       <c r="S17">
-        <v>0.01714121348478111</v>
+        <v>0.01774493939524113</v>
       </c>
       <c r="T17">
-        <v>0.01714121348478111</v>
+        <v>0.01774493939524113</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.78894679345051</v>
+        <v>4.848472666666667</v>
       </c>
       <c r="H18">
-        <v>3.78894679345051</v>
+        <v>14.545418</v>
       </c>
       <c r="I18">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="J18">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.83685466660925</v>
+        <v>3.032031</v>
       </c>
       <c r="N18">
-        <v>2.83685466660925</v>
+        <v>9.096093</v>
       </c>
       <c r="O18">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="P18">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="Q18">
-        <v>10.74869139253423</v>
+        <v>14.700719427986</v>
       </c>
       <c r="R18">
-        <v>10.74869139253423</v>
+        <v>132.306474851874</v>
       </c>
       <c r="S18">
-        <v>0.01564790883538642</v>
+        <v>0.01654355256215834</v>
       </c>
       <c r="T18">
-        <v>0.01564790883538642</v>
+        <v>0.01654355256215834</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.78894679345051</v>
+        <v>4.848472666666667</v>
       </c>
       <c r="H19">
-        <v>3.78894679345051</v>
+        <v>14.545418</v>
       </c>
       <c r="I19">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="J19">
-        <v>0.09687024134934941</v>
+        <v>0.1146154230386486</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.16726846685882</v>
+        <v>2.234552</v>
       </c>
       <c r="N19">
-        <v>2.16726846685882</v>
+        <v>6.703656</v>
       </c>
       <c r="O19">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="P19">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="Q19">
-        <v>8.211664908051128</v>
+        <v>10.83416429424533</v>
       </c>
       <c r="R19">
-        <v>8.211664908051128</v>
+        <v>97.50747864820801</v>
       </c>
       <c r="S19">
-        <v>0.01195451419855402</v>
+        <v>0.01219229897876243</v>
       </c>
       <c r="T19">
-        <v>0.01195451419855402</v>
+        <v>0.01219229897876244</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.74908329195142</v>
+        <v>4.868486</v>
       </c>
       <c r="H20">
-        <v>4.74908329195142</v>
+        <v>14.605458</v>
       </c>
       <c r="I20">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="J20">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.858547682613206</v>
+        <v>1.281462666666666</v>
       </c>
       <c r="N20">
-        <v>0.858547682613206</v>
+        <v>3.844387999999999</v>
       </c>
       <c r="O20">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713488</v>
       </c>
       <c r="P20">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713489</v>
       </c>
       <c r="Q20">
-        <v>4.077314454841988</v>
+        <v>6.238783052189332</v>
       </c>
       <c r="R20">
-        <v>4.077314454841988</v>
+        <v>56.14904746970399</v>
       </c>
       <c r="S20">
-        <v>0.005935740691828362</v>
+        <v>0.007020856078057729</v>
       </c>
       <c r="T20">
-        <v>0.005935740691828362</v>
+        <v>0.007020856078057729</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.74908329195142</v>
+        <v>4.868486</v>
       </c>
       <c r="H21">
-        <v>4.74908329195142</v>
+        <v>14.605458</v>
       </c>
       <c r="I21">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="J21">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.19455055447194</v>
+        <v>5.553376333333333</v>
       </c>
       <c r="N21">
-        <v>5.19455055447194</v>
+        <v>16.660129</v>
       </c>
       <c r="O21">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="P21">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="Q21">
-        <v>24.66935324743967</v>
+        <v>27.03653493156467</v>
       </c>
       <c r="R21">
-        <v>24.66935324743967</v>
+        <v>243.328814384082</v>
       </c>
       <c r="S21">
-        <v>0.03591356161848709</v>
+        <v>0.03042574473515053</v>
       </c>
       <c r="T21">
-        <v>0.03591356161848709</v>
+        <v>0.03042574473515052</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.74908329195142</v>
+        <v>4.868486</v>
       </c>
       <c r="H22">
-        <v>4.74908329195142</v>
+        <v>14.605458</v>
       </c>
       <c r="I22">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="J22">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.39708476972371</v>
+        <v>5.652582666666667</v>
       </c>
       <c r="N22">
-        <v>3.39708476972371</v>
+        <v>16.957748</v>
       </c>
       <c r="O22">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="P22">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="Q22">
-        <v>16.13303852123751</v>
+        <v>27.51951957650934</v>
       </c>
       <c r="R22">
-        <v>16.13303852123751</v>
+        <v>247.675676188584</v>
       </c>
       <c r="S22">
-        <v>0.0234864233048356</v>
+        <v>0.03096927472356363</v>
       </c>
       <c r="T22">
-        <v>0.0234864233048356</v>
+        <v>0.03096927472356363</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.74908329195142</v>
+        <v>4.868486</v>
       </c>
       <c r="H23">
-        <v>4.74908329195142</v>
+        <v>14.605458</v>
       </c>
       <c r="I23">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="J23">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.10758018705225</v>
+        <v>3.252216</v>
       </c>
       <c r="N23">
-        <v>3.10758018705225</v>
+        <v>9.756648</v>
       </c>
       <c r="O23">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="P23">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="Q23">
-        <v>14.75815714472911</v>
+        <v>15.833368064976</v>
       </c>
       <c r="R23">
-        <v>14.75815714472911</v>
+        <v>142.500312584784</v>
       </c>
       <c r="S23">
-        <v>0.02148487561373554</v>
+        <v>0.01781818625286256</v>
       </c>
       <c r="T23">
-        <v>0.02148487561373554</v>
+        <v>0.01781818625286256</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.74908329195142</v>
+        <v>4.868486</v>
       </c>
       <c r="H24">
-        <v>4.74908329195142</v>
+        <v>14.605458</v>
       </c>
       <c r="I24">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="J24">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.83685466660925</v>
+        <v>3.032031</v>
       </c>
       <c r="N24">
-        <v>2.83685466660925</v>
+        <v>9.096093</v>
       </c>
       <c r="O24">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="P24">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="Q24">
-        <v>13.4724590988884</v>
+        <v>14.761400475066</v>
       </c>
       <c r="R24">
-        <v>13.4724590988884</v>
+        <v>132.852604275594</v>
       </c>
       <c r="S24">
-        <v>0.01961316071594588</v>
+        <v>0.01661184038281994</v>
       </c>
       <c r="T24">
-        <v>0.01961316071594588</v>
+        <v>0.01661184038281994</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.74908329195142</v>
+        <v>4.868486</v>
       </c>
       <c r="H25">
-        <v>4.74908329195142</v>
+        <v>14.605458</v>
       </c>
       <c r="I25">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="J25">
-        <v>0.1214176048802586</v>
+        <v>0.1150885280397727</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.16726846685882</v>
+        <v>2.234552</v>
       </c>
       <c r="N25">
-        <v>2.16726846685882</v>
+        <v>6.703656</v>
       </c>
       <c r="O25">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="P25">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="Q25">
-        <v>10.29253846513239</v>
+        <v>10.878885128272</v>
       </c>
       <c r="R25">
-        <v>10.29253846513239</v>
+        <v>97.90996615444799</v>
       </c>
       <c r="S25">
-        <v>0.01498384293542613</v>
+        <v>0.01224262586731833</v>
       </c>
       <c r="T25">
-        <v>0.01498384293542613</v>
+        <v>0.01224262586731833</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.7002377439342</v>
+        <v>19.615261</v>
       </c>
       <c r="H26">
-        <v>18.7002377439342</v>
+        <v>58.845783</v>
       </c>
       <c r="I26">
-        <v>0.4781002854609709</v>
+        <v>0.4636947740233741</v>
       </c>
       <c r="J26">
-        <v>0.4781002854609709</v>
+        <v>0.463694774023374</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.858547682613206</v>
+        <v>1.281462666666666</v>
       </c>
       <c r="N26">
-        <v>0.858547682613206</v>
+        <v>3.844387999999999</v>
       </c>
       <c r="O26">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713488</v>
       </c>
       <c r="P26">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713489</v>
       </c>
       <c r="Q26">
-        <v>16.05504577937072</v>
+        <v>25.13622466842266</v>
       </c>
       <c r="R26">
-        <v>16.05504577937072</v>
+        <v>226.2260220158039</v>
       </c>
       <c r="S26">
-        <v>0.02337288173312381</v>
+        <v>0.02828721791837108</v>
       </c>
       <c r="T26">
-        <v>0.02337288173312381</v>
+        <v>0.02828721791837108</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>18.7002377439342</v>
+        <v>19.615261</v>
       </c>
       <c r="H27">
-        <v>18.7002377439342</v>
+        <v>58.845783</v>
       </c>
       <c r="I27">
-        <v>0.4781002854609709</v>
+        <v>0.4636947740233741</v>
       </c>
       <c r="J27">
-        <v>0.4781002854609709</v>
+        <v>0.463694774023374</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.19455055447194</v>
+        <v>5.553376333333333</v>
       </c>
       <c r="N27">
-        <v>5.19455055447194</v>
+        <v>16.660129</v>
       </c>
       <c r="O27">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="P27">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="Q27">
-        <v>97.13933034151049</v>
+        <v>108.9309262095563</v>
       </c>
       <c r="R27">
-        <v>97.13933034151049</v>
+        <v>980.378335886007</v>
       </c>
       <c r="S27">
-        <v>0.1414151109194757</v>
+        <v>0.1225861436387726</v>
       </c>
       <c r="T27">
-        <v>0.1414151109194757</v>
+        <v>0.1225861436387726</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>18.7002377439342</v>
+        <v>19.615261</v>
       </c>
       <c r="H28">
-        <v>18.7002377439342</v>
+        <v>58.845783</v>
       </c>
       <c r="I28">
-        <v>0.4781002854609709</v>
+        <v>0.4636947740233741</v>
       </c>
       <c r="J28">
-        <v>0.4781002854609709</v>
+        <v>0.463694774023374</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.39708476972371</v>
+        <v>5.652582666666667</v>
       </c>
       <c r="N28">
-        <v>3.39708476972371</v>
+        <v>16.957748</v>
       </c>
       <c r="O28">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="P28">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="Q28">
-        <v>63.52629283013134</v>
+        <v>110.8768843307427</v>
       </c>
       <c r="R28">
-        <v>63.52629283013134</v>
+        <v>997.8919589766841</v>
       </c>
       <c r="S28">
-        <v>0.09248136378223692</v>
+        <v>0.1247760405767632</v>
       </c>
       <c r="T28">
-        <v>0.09248136378223692</v>
+        <v>0.1247760405767632</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>18.7002377439342</v>
+        <v>19.615261</v>
       </c>
       <c r="H29">
-        <v>18.7002377439342</v>
+        <v>58.845783</v>
       </c>
       <c r="I29">
-        <v>0.4781002854609709</v>
+        <v>0.4636947740233741</v>
       </c>
       <c r="J29">
-        <v>0.4781002854609709</v>
+        <v>0.463694774023374</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.10758018705225</v>
+        <v>3.252216</v>
       </c>
       <c r="N29">
-        <v>3.10758018705225</v>
+        <v>9.756648</v>
       </c>
       <c r="O29">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="P29">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="Q29">
-        <v>58.11248830621658</v>
+        <v>63.793065668376</v>
       </c>
       <c r="R29">
-        <v>58.11248830621658</v>
+        <v>574.137591015384</v>
       </c>
       <c r="S29">
-        <v>0.08459996533575614</v>
+        <v>0.07178995151603829</v>
       </c>
       <c r="T29">
-        <v>0.08459996533575614</v>
+        <v>0.07178995151603827</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>18.7002377439342</v>
+        <v>19.615261</v>
       </c>
       <c r="H30">
-        <v>18.7002377439342</v>
+        <v>58.845783</v>
       </c>
       <c r="I30">
-        <v>0.4781002854609709</v>
+        <v>0.4636947740233741</v>
       </c>
       <c r="J30">
-        <v>0.4781002854609709</v>
+        <v>0.463694774023374</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.83685466660925</v>
+        <v>3.032031</v>
       </c>
       <c r="N30">
-        <v>2.83685466660925</v>
+        <v>9.096093</v>
       </c>
       <c r="O30">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="P30">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="Q30">
-        <v>53.04985671058216</v>
+        <v>59.474079425091</v>
       </c>
       <c r="R30">
-        <v>53.04985671058216</v>
+        <v>535.266714825819</v>
       </c>
       <c r="S30">
-        <v>0.07722980325903504</v>
+        <v>0.06692955156887645</v>
       </c>
       <c r="T30">
-        <v>0.07722980325903504</v>
+        <v>0.06692955156887644</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>18.7002377439342</v>
+        <v>19.615261</v>
       </c>
       <c r="H31">
-        <v>18.7002377439342</v>
+        <v>58.845783</v>
       </c>
       <c r="I31">
-        <v>0.4781002854609709</v>
+        <v>0.4636947740233741</v>
       </c>
       <c r="J31">
-        <v>0.4781002854609709</v>
+        <v>0.463694774023374</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.16726846685882</v>
+        <v>2.234552</v>
       </c>
       <c r="N31">
-        <v>2.16726846685882</v>
+        <v>6.703656</v>
       </c>
       <c r="O31">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="P31">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="Q31">
-        <v>40.52843558519171</v>
+        <v>43.831320698072</v>
       </c>
       <c r="R31">
-        <v>40.52843558519171</v>
+        <v>394.481886282648</v>
       </c>
       <c r="S31">
-        <v>0.05900116043134327</v>
+        <v>0.04932586880455245</v>
       </c>
       <c r="T31">
-        <v>0.05900116043134327</v>
+        <v>0.04932586880455245</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.82324264754186</v>
+        <v>1.854396666666667</v>
       </c>
       <c r="H32">
-        <v>1.82324264754186</v>
+        <v>5.563190000000001</v>
       </c>
       <c r="I32">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193149</v>
       </c>
       <c r="J32">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193148</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.858547682613206</v>
+        <v>1.281462666666666</v>
       </c>
       <c r="N32">
-        <v>0.858547682613206</v>
+        <v>3.844387999999999</v>
       </c>
       <c r="O32">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713488</v>
       </c>
       <c r="P32">
-        <v>0.04888698552143371</v>
+        <v>0.06100396101713489</v>
       </c>
       <c r="Q32">
-        <v>1.56534074988863</v>
+        <v>2.376340097524444</v>
       </c>
       <c r="R32">
-        <v>1.56534074988863</v>
+        <v>21.38706087772</v>
       </c>
       <c r="S32">
-        <v>0.002278817807308695</v>
+        <v>0.002674230162785035</v>
       </c>
       <c r="T32">
-        <v>0.002278817807308695</v>
+        <v>0.002674230162785035</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.82324264754186</v>
+        <v>1.854396666666667</v>
       </c>
       <c r="H33">
-        <v>1.82324264754186</v>
+        <v>5.563190000000001</v>
       </c>
       <c r="I33">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193149</v>
       </c>
       <c r="J33">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193148</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.19455055447194</v>
+        <v>5.553376333333333</v>
       </c>
       <c r="N33">
-        <v>5.19455055447194</v>
+        <v>16.660129</v>
       </c>
       <c r="O33">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="P33">
-        <v>0.2957854559386577</v>
+        <v>0.2643681803336288</v>
       </c>
       <c r="Q33">
-        <v>9.470926105725455</v>
+        <v>10.29816256127889</v>
       </c>
       <c r="R33">
-        <v>9.470926105725455</v>
+        <v>92.68346305151002</v>
       </c>
       <c r="S33">
-        <v>0.01378774242155741</v>
+        <v>0.01158910585708042</v>
       </c>
       <c r="T33">
-        <v>0.01378774242155741</v>
+        <v>0.01158910585708042</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.82324264754186</v>
+        <v>1.854396666666667</v>
       </c>
       <c r="H34">
-        <v>1.82324264754186</v>
+        <v>5.563190000000001</v>
       </c>
       <c r="I34">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193149</v>
       </c>
       <c r="J34">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193148</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.39708476972371</v>
+        <v>5.652582666666667</v>
       </c>
       <c r="N34">
-        <v>3.39708476972371</v>
+        <v>16.957748</v>
       </c>
       <c r="O34">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="P34">
-        <v>0.1934350733404582</v>
+        <v>0.2690908924724553</v>
       </c>
       <c r="Q34">
-        <v>6.193709829475186</v>
+        <v>10.48213045512445</v>
       </c>
       <c r="R34">
-        <v>6.193709829475186</v>
+        <v>94.33917409612002</v>
       </c>
       <c r="S34">
-        <v>0.009016781971411113</v>
+        <v>0.0117961353522349</v>
       </c>
       <c r="T34">
-        <v>0.009016781971411113</v>
+        <v>0.0117961353522349</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.82324264754186</v>
+        <v>1.854396666666667</v>
       </c>
       <c r="H35">
-        <v>1.82324264754186</v>
+        <v>5.563190000000001</v>
       </c>
       <c r="I35">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193149</v>
       </c>
       <c r="J35">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193148</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.10758018705225</v>
+        <v>3.252216</v>
       </c>
       <c r="N35">
-        <v>3.10758018705225</v>
+        <v>9.756648</v>
       </c>
       <c r="O35">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="P35">
-        <v>0.1769502506240657</v>
+        <v>0.154821566982809</v>
       </c>
       <c r="Q35">
-        <v>5.665872727689773</v>
+        <v>6.030898509680001</v>
       </c>
       <c r="R35">
-        <v>5.665872727689773</v>
+        <v>54.27808658712001</v>
       </c>
       <c r="S35">
-        <v>0.008248358491097074</v>
+        <v>0.006786911822967996</v>
       </c>
       <c r="T35">
-        <v>0.008248358491097074</v>
+        <v>0.006786911822967995</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.82324264754186</v>
+        <v>1.854396666666667</v>
       </c>
       <c r="H36">
-        <v>1.82324264754186</v>
+        <v>5.563190000000001</v>
       </c>
       <c r="I36">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193149</v>
       </c>
       <c r="J36">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193148</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.83685466660925</v>
+        <v>3.032031</v>
       </c>
       <c r="N36">
-        <v>2.83685466660925</v>
+        <v>9.096093</v>
       </c>
       <c r="O36">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="P36">
-        <v>0.1615347357188298</v>
+        <v>0.1443396719530478</v>
       </c>
       <c r="Q36">
-        <v>5.172274413040129</v>
+        <v>5.622588179630001</v>
       </c>
       <c r="R36">
-        <v>5.172274413040129</v>
+        <v>50.60329361667</v>
       </c>
       <c r="S36">
-        <v>0.007529779722122204</v>
+        <v>0.00632741707239171</v>
       </c>
       <c r="T36">
-        <v>0.007529779722122204</v>
+        <v>0.006327417072391708</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.82324264754186</v>
+        <v>1.854396666666667</v>
       </c>
       <c r="H37">
-        <v>1.82324264754186</v>
+        <v>5.563190000000001</v>
       </c>
       <c r="I37">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193149</v>
       </c>
       <c r="J37">
-        <v>0.04661399722242199</v>
+        <v>0.04383699219193148</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.16726846685882</v>
+        <v>2.234552</v>
       </c>
       <c r="N37">
-        <v>2.16726846685882</v>
+        <v>6.703656</v>
       </c>
       <c r="O37">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="P37">
-        <v>0.1234074988565548</v>
+        <v>0.1063757272409243</v>
       </c>
       <c r="Q37">
-        <v>3.951456297449663</v>
+        <v>4.143745780293334</v>
       </c>
       <c r="R37">
-        <v>3.951456297449663</v>
+        <v>37.29371202264</v>
       </c>
       <c r="S37">
-        <v>0.005752516808925488</v>
+        <v>0.004663191924471431</v>
       </c>
       <c r="T37">
-        <v>0.005752516808925488</v>
+        <v>0.004663191924471431</v>
       </c>
     </row>
   </sheetData>
